--- a/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_3_resultat_fts_202204.xlsx
+++ b/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_3_resultat_fts_202204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A599D7E-5E83-4D72-862F-C28E633DD27D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67DA1C-3DBE-4E89-93DE-C09C9466320B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1064,10 +1064,10 @@
     <t>Féminin</t>
   </si>
   <si>
-    <t>(May 2021) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V4.2</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_3_resultat_fts_202105_v4_2</t>
+    <t>ci_lf_pretas_3_resultat_fts_202204_v1</t>
+  </si>
+  <si>
+    <t>(April 2022) 3. Côte d'Ivoire - Pre TAS FL Résultat FTS V1</t>
   </si>
 </sst>
 </file>
@@ -1621,34 +1621,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.19921875" style="8" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.3984375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="49.375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.3984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.8984375" customWidth="1"/>
+    <col min="16" max="16" width="36.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>197</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>198</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>199</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>210</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -2121,7 +2121,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>33</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>312</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2258,15 +2258,15 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
@@ -2301,7 +2301,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>339</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>339</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>129</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>129</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>129</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>129</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>129</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>129</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>129</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>129</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>129</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>129</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>129</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>129</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>129</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>129</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>129</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>129</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>163</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>163</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>163</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>163</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>163</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>163</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>163</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>163</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>163</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>163</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>163</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>163</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>163</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>163</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>163</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>163</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>163</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>163</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>163</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>163</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>163</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>163</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>163</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>163</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>163</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>163</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>163</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>163</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>163</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>163</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>163</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>163</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>163</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>163</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>163</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>163</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>163</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>163</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>163</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>163</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>163</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>225</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>225</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>225</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>225</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>225</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>225</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>225</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>225</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>225</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>225</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>225</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>225</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>225</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>225</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>225</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>225</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>225</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>225</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>225</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>225</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>225</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>225</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>225</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>225</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>225</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>225</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>225</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>225</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>225</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>225</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>225</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>225</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>225</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>225</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>225</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>225</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>225</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>225</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>225</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>225</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>225</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>225</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>225</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>225</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>225</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>225</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>225</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>225</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>225</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>225</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>225</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>225</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>225</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>225</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>225</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>225</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>225</v>
       </c>
@@ -7152,18 +7152,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7180,15 +7180,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
         <v>344</v>
       </c>
-      <c r="B2" t="s">
-        <v>345</v>
-      </c>
       <c r="C2">
-        <v>20210522</v>
+        <v>20220405</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>

--- a/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_3_resultat_fts_202204.xlsx
+++ b/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_3_resultat_fts_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -465,22 +465,22 @@
     <t>Ligne témoin discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
   </si>
   <si>
-    <t>Difficulté d’absorption d’échantillon</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulté d.absorption d.échantillon</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
   </si>
   <si>
-    <t>Difficulté de migration d’échantillon</t>
+    <t>Difficulté de migration d.échantillon</t>
   </si>
   <si>
     <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
@@ -585,13 +585,13 @@
     <t>Man</t>
   </si>
   <si>
-    <t>M'Bahiakro</t>
+    <t>M.Bahiakro</t>
   </si>
   <si>
     <t>Iffou</t>
   </si>
   <si>
-    <t>M'Bengue</t>
+    <t>M.Bengue</t>
   </si>
   <si>
     <t>Ouangolodougou</t>
@@ -615,7 +615,7 @@
     <t>Secretaire</t>
   </si>
   <si>
-    <t>Assandre N’Drikro</t>
+    <t>Assandre N.Drikro</t>
   </si>
   <si>
     <t>Nimbo Village</t>
@@ -693,7 +693,7 @@
     <t>Yerakro</t>
   </si>
   <si>
-    <t>N'Dienkaha</t>
+    <t>N.Dienkaha</t>
   </si>
   <si>
     <t>Tiolo1</t>
@@ -717,7 +717,7 @@
     <t>Namongovogo</t>
   </si>
   <si>
-    <t>M’Bele</t>
+    <t>M.Bele</t>
   </si>
   <si>
     <t>Papara</t>
@@ -753,10 +753,10 @@
     <t>Tinasso (105)</t>
   </si>
   <si>
-    <t>M’Bele (106)</t>
-  </si>
-  <si>
-    <t>Assandre N’Drikro (107)</t>
+    <t>M.Bele (106)</t>
+  </si>
+  <si>
+    <t>Assandre N.Drikro (107)</t>
   </si>
   <si>
     <t>Mopoyem (108)</t>
@@ -834,7 +834,7 @@
     <t>Niofoin (132)</t>
   </si>
   <si>
-    <t>N'Dienkaha (133)</t>
+    <t>N.Dienkaha (133)</t>
   </si>
   <si>
     <t>Namongovogo (134)</t>
@@ -887,9 +887,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -942,47 +942,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,6 +957,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -1003,9 +987,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,15 +1002,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,25 +1043,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,7 +1058,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,7 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1131,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1167,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,61 +1245,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,85 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,15 +1318,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,6 +1405,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1422,148 +1422,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2646,10 +2646,10 @@
   <sheetPr/>
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="$A104:$XFD124"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -6101,7 +6101,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
